--- a/biology/Zoologie/Chindesaurus/Chindesaurus.xlsx
+++ b/biology/Zoologie/Chindesaurus/Chindesaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chindesaurus bryansmalli
 Chindesaurus et un genre éteint de dinosaures théropodes généralement rattaché à la famille des Herrerasauridae. Il a été découvert aux États-Unis dans les états d'Arizona, du Nouveau-Mexique et du Texas, dans la formation de Chinle, datée de la fin du Carnien ou du Norien, c'est-à-dire il y a environ entre 235 et 210 Ma (millions d'années). Cet animal est considéré comme l'un des plus anciens dinosaures d'Amérique du Nord.
-Une seule espèce est rattachée au genre, Chindesaurus bryansmalli, décrite par Robert A. Long (d) et Phillip A. Murry en 1995[1].
+Une seule espèce est rattachée au genre, Chindesaurus bryansmalli, décrite par Robert A. Long (d) et Phillip A. Murry en 1995.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'était un carnivore de petite taille doté de longues pattes postérieures, signe qu'il courait vite. On ne le connait que grâce à un unique spécimen incomplet, découvert à Chinde Point dans le Parc national de Petrified Forest.
-Sa taille est estimée entre 2 et 2,30 mètres de long[2],[3]. Sa masse est évaluée au plus à 50 kg[4].
+Sa taille est estimée entre 2 et 2,30 mètres de long,. Sa masse est évaluée au plus à 50 kg.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme suivant est issu de l'analyse phylogénétique conduite par Hans-Dieter Sues, Sterling J. Nesbitt, David S Berman et Amy C. Henrici en 2011, qui place Chindesaurus comme un théropode herrerasauridé[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme suivant est issu de l'analyse phylogénétique conduite par Hans-Dieter Sues, Sterling J. Nesbitt, David S Berman et Amy C. Henrici en 2011, qui place Chindesaurus comme un théropode herrerasauridé :
 </t>
         </is>
       </c>
